--- a/__SYSDefault/__DATA/locations.xlsx
+++ b/__SYSDefault/__DATA/locations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A1D5B0-4B27-4C85-9D68-3EE23AD884D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77EE45-34C5-4ECC-A1B8-B01A165B90C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="192">
   <si>
     <t>Ref. ID</t>
   </si>
@@ -389,9 +389,6 @@
   </si>
   <si>
     <t>乌克兰</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>Vietnam</t>
@@ -662,11 +659,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -678,7 +675,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1060,13 +1057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1081,12 +1078,12 @@
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1095,19 +1092,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1119,12 +1116,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
@@ -1155,12 +1152,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -1191,12 +1188,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
@@ -1227,12 +1224,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>0</v>
@@ -1257,12 +1254,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>0</v>
@@ -1287,12 +1284,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>0</v>
@@ -1317,12 +1314,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>0</v>
@@ -1347,12 +1344,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>0</v>
@@ -1377,12 +1374,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>0</v>
@@ -1407,12 +1404,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>0</v>
@@ -1437,12 +1434,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>0</v>
@@ -1467,12 +1464,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>0</v>
@@ -1497,12 +1494,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="b">
         <v>0</v>
@@ -1527,12 +1524,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>0</v>
@@ -1557,12 +1554,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>0</v>
@@ -1587,12 +1584,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2" t="b">
         <v>0</v>
@@ -1617,12 +1614,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2" t="b">
         <v>0</v>
@@ -1647,12 +1644,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2" t="b">
         <v>0</v>
@@ -1677,12 +1674,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>0</v>
@@ -1707,12 +1704,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>0</v>
@@ -1737,12 +1734,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>0</v>
@@ -1767,12 +1764,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>0</v>
@@ -1797,12 +1794,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>0</v>
@@ -1827,12 +1824,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2" t="b">
         <v>0</v>
@@ -1857,12 +1854,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2" t="b">
         <v>0</v>
@@ -1887,12 +1884,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>0</v>
@@ -1917,12 +1914,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="b">
         <v>0</v>
@@ -1947,12 +1944,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" s="2" t="b">
         <v>0</v>
@@ -1977,12 +1974,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>0</v>
@@ -2007,12 +2004,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="2" t="b">
         <v>0</v>
@@ -2037,12 +2034,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2" t="b">
         <v>0</v>
@@ -2067,12 +2064,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="2" t="b">
         <v>0</v>
@@ -2097,12 +2094,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2" t="b">
         <v>0</v>
@@ -2127,12 +2124,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2" t="b">
         <v>0</v>
@@ -2157,12 +2154,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="2" t="b">
         <v>0</v>
@@ -2187,12 +2184,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="2" t="b">
         <v>0</v>
@@ -2217,12 +2214,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="2" t="b">
         <v>0</v>
@@ -2247,12 +2244,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="2" t="b">
         <v>0</v>
@@ -2277,12 +2274,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="2" t="b">
         <v>0</v>
@@ -2307,12 +2304,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="2" t="b">
         <v>0</v>
@@ -2337,12 +2334,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="b">
         <v>0</v>
@@ -2367,12 +2364,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C43" s="2" t="b">
         <v>0</v>
@@ -2382,11 +2379,11 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
@@ -2397,7 +2394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>169</v>
       </c>
@@ -2408,36 +2405,32 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="F44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" t="s">
+        <v>177</v>
+      </c>
       <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>184</v>
+      </c>
       <c r="L44" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>171</v>
       </c>
       <c r="F45" t="s">
@@ -2453,12 +2446,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2" t="b">
         <v>0</v>
@@ -2479,12 +2472,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C47" s="2" t="b">
         <v>0</v>
@@ -2493,7 +2486,7 @@
         <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H47" t="s">
         <v>180</v>
@@ -2503,32 +2496,6 @@
       </c>
       <c r="L47" s="2" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" t="s">
-        <v>181</v>
-      </c>
-      <c r="H48" t="s">
-        <v>181</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/__SYSDefault/__DATA/locations.xlsx
+++ b/__SYSDefault/__DATA/locations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B77EE45-34C5-4ECC-A1B8-B01A165B90C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA3AC02-D502-48C3-9A69-923ABD2A0ABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="191">
   <si>
     <t>Ref. ID</t>
   </si>
@@ -337,36 +337,24 @@
     <t>荷兰</t>
   </si>
   <si>
-    <t>The Philippines</t>
-  </si>
-  <si>
     <t>菲律賓人</t>
   </si>
   <si>
     <t>菲律宾</t>
   </si>
   <si>
-    <t>The United Arab Emirates</t>
-  </si>
-  <si>
     <t>阿拉伯聯合酋長國</t>
   </si>
   <si>
     <t>阿拉伯联合酋长国</t>
   </si>
   <si>
-    <t>The United Kingdom</t>
-  </si>
-  <si>
     <t>英國</t>
   </si>
   <si>
     <t>英国</t>
   </si>
   <si>
-    <t>The United States of America</t>
-  </si>
-  <si>
     <t>美利堅合眾國</t>
   </si>
   <si>
@@ -376,9 +364,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>火雞</t>
-  </si>
-  <si>
     <t>土耳其</t>
   </si>
   <si>
@@ -653,17 +638,33 @@
   </si>
   <si>
     <t>2021/06/02 00:00:04</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States of America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -675,7 +676,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1059,11 +1060,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1078,12 +1079,12 @@
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1092,19 +1093,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1116,12 +1117,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>1</v>
@@ -1152,12 +1153,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
@@ -1188,12 +1189,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
@@ -1224,12 +1225,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>0</v>
@@ -1254,12 +1255,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>0</v>
@@ -1284,12 +1285,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>0</v>
@@ -1314,12 +1315,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>0</v>
@@ -1344,12 +1345,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>0</v>
@@ -1374,12 +1375,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>0</v>
@@ -1404,12 +1405,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>0</v>
@@ -1434,12 +1435,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>0</v>
@@ -1464,12 +1465,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>0</v>
@@ -1494,12 +1495,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="b">
         <v>0</v>
@@ -1524,12 +1525,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>0</v>
@@ -1554,12 +1555,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>0</v>
@@ -1584,12 +1585,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2" t="b">
         <v>0</v>
@@ -1614,12 +1615,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2" t="b">
         <v>0</v>
@@ -1644,12 +1645,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2" t="b">
         <v>0</v>
@@ -1674,12 +1675,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>0</v>
@@ -1704,12 +1705,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>0</v>
@@ -1734,12 +1735,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>0</v>
@@ -1764,12 +1765,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>0</v>
@@ -1794,12 +1795,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>0</v>
@@ -1824,12 +1825,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="b">
         <v>0</v>
@@ -1854,12 +1855,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2" t="b">
         <v>0</v>
@@ -1884,12 +1885,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>0</v>
@@ -1914,12 +1915,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C28" s="2" t="b">
         <v>0</v>
@@ -1944,12 +1945,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C29" s="2" t="b">
         <v>0</v>
@@ -1974,12 +1975,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>0</v>
@@ -2004,12 +2005,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="b">
         <v>0</v>
@@ -2034,12 +2035,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="b">
         <v>0</v>
@@ -2064,12 +2065,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="b">
         <v>0</v>
@@ -2094,12 +2095,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="b">
         <v>0</v>
@@ -2124,12 +2125,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2" t="b">
         <v>0</v>
@@ -2154,12 +2155,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2" t="b">
         <v>0</v>
@@ -2184,26 +2185,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
@@ -2214,26 +2215,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
@@ -2244,26 +2245,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C39" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
@@ -2274,26 +2275,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
@@ -2304,26 +2305,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
@@ -2334,26 +2335,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
@@ -2364,26 +2365,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C43" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
@@ -2394,108 +2395,108 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H44" t="s">
-        <v>177</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="C47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" t="s">
+        <v>175</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" t="s">
-        <v>183</v>
-      </c>
-      <c r="H46" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" t="s">
-        <v>180</v>
-      </c>
-      <c r="H47" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
